--- a/hmf3_class_readme.xlsx
+++ b/hmf3_class_readme.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangdi/dropbox/github/hmf/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0F7FA1-D3A8-8B45-912B-632AF0CEAE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211FEBDA-0DB8-5847-A74F-0780B1A6FE05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49220" yWindow="2060" windowWidth="31460" windowHeight="18060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="49220" yWindow="2060" windowWidth="31460" windowHeight="18060" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objects" sheetId="1" r:id="rId1"/>
     <sheet name="Concept" sheetId="2" r:id="rId2"/>
     <sheet name="computation time" sheetId="3" r:id="rId3"/>
     <sheet name="Examine parameter impact on..." sheetId="4" r:id="rId4"/>
+    <sheet name="About" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>Object</t>
   </si>
@@ -563,6 +564,9 @@
   </si>
   <si>
     <t>compute the optimized state transition matrix; ater populate_Q() optimize() are implemented.</t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1827,4 +1831,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{150AA71A-9E23-CB4E-B264-507E95CBB757}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1">
+        <v>2022.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>